--- a/Team-Data/2007-08/2-2-2007-08.xlsx
+++ b/Team-Data/2007-08/2-2-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,88 +733,88 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="n">
         <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.455</v>
+        <v>0.442</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.318</v>
+        <v>0.32</v>
       </c>
       <c r="O2" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P2" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.771</v>
       </c>
       <c r="R2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -759,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -771,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
@@ -786,31 +853,31 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -962,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
         <v>10</v>
@@ -986,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.449</v>
@@ -1057,31 +1124,31 @@
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O4" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
         <v>25.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.701</v>
+        <v>0.704</v>
       </c>
       <c r="R4" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S4" t="n">
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.5</v>
+        <v>40.3</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V4" t="n">
         <v>15.2</v>
@@ -1090,7 +1157,7 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y4" t="n">
         <v>5.8</v>
@@ -1102,22 +1169,22 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
@@ -1126,10 +1193,10 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,37 +1205,37 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,31 +1297,31 @@
         <v>35.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O5" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="S5" t="n">
         <v>30</v>
@@ -1263,10 +1330,10 @@
         <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1278,19 +1345,19 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>94</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1323,13 +1390,13 @@
         <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1344,25 +1411,25 @@
         <v>20</v>
       </c>
       <c r="AV5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
@@ -1412,37 +1479,37 @@
         <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
         <v>18.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.353</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R6" t="n">
         <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
         <v>19.3</v>
@@ -1451,10 +1518,10 @@
         <v>14.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y6" t="n">
         <v>4.8</v>
@@ -1463,16 +1530,16 @@
         <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>97</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1508,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1517,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1532,16 +1599,16 @@
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
         <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1699,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
@@ -1723,10 +1790,10 @@
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.609</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
@@ -1776,10 +1843,10 @@
         <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L8" t="n">
         <v>6.1</v>
@@ -1788,19 +1855,19 @@
         <v>18.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
         <v>33</v>
@@ -1812,31 +1879,31 @@
         <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
         <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1845,7 +1912,7 @@
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,16 +1948,16 @@
         <v>10</v>
       </c>
       <c r="AS8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2036,10 +2103,10 @@
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2066,7 +2133,7 @@
         <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
@@ -2239,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
@@ -2248,7 +2315,7 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.574</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J11" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.729</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U11" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
@@ -2370,22 +2437,22 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
         <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -2400,19 +2467,19 @@
         <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
@@ -2427,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2439,16 +2506,16 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>6</v>
       </c>
       <c r="BA11" t="n">
         <v>20</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
         <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2510,46 +2577,46 @@
         <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P12" t="n">
         <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="U12" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z12" t="n">
         <v>24.4</v>
@@ -2558,16 +2625,16 @@
         <v>21.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.4</v>
+        <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2597,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2606,16 +2673,16 @@
         <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
-        <v>0.318</v>
+        <v>0.326</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,43 +2753,43 @@
         <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
         <v>12.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.326</v>
+        <v>0.328</v>
       </c>
       <c r="O13" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="P13" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q13" t="n">
         <v>0.782</v>
       </c>
       <c r="R13" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S13" t="n">
         <v>31.3</v>
       </c>
       <c r="T13" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U13" t="n">
         <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
         <v>6.7</v>
@@ -2737,22 +2804,22 @@
         <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2761,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2770,7 +2837,7 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
@@ -2791,31 +2858,31 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2958,19 +3025,19 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3059,34 +3126,34 @@
         <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
         <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
         <v>20.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
         <v>5.8</v>
@@ -3101,16 +3168,16 @@
         <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.7</v>
+        <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>7</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3173,16 +3240,16 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L17" t="n">
         <v>5.6</v>
       </c>
       <c r="M17" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="O17" t="n">
         <v>16.6</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="O17" t="n">
-        <v>16.5</v>
-      </c>
       <c r="P17" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S17" t="n">
         <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z17" t="n">
         <v>21.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>94</v>
+        <v>94.2</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3492,49 +3559,49 @@
         <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
@@ -3543,10 +3610,10 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,16 +3768,16 @@
         <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>18</v>
@@ -3719,7 +3786,7 @@
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.426</v>
+        <v>0.435</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,10 +3845,10 @@
         <v>33.7</v>
       </c>
       <c r="J19" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
@@ -3790,37 +3857,37 @@
         <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.716</v>
+        <v>0.714</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>42.1</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
         <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
         <v>4.5</v>
@@ -3829,16 +3896,16 @@
         <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
@@ -3880,19 +3947,19 @@
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>6.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4062,7 +4129,7 @@
         <v>7</v>
       </c>
       <c r="AR20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>12</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>0.298</v>
+        <v>0.304</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>80.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K21" t="n">
         <v>0.438</v>
@@ -4154,7 +4221,7 @@
         <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O21" t="n">
         <v>18.7</v>
@@ -4163,16 +4230,16 @@
         <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R21" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S21" t="n">
         <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="U21" t="n">
         <v>18.2</v>
@@ -4181,28 +4248,28 @@
         <v>15.3</v>
       </c>
       <c r="W21" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X21" t="n">
         <v>2.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z21" t="n">
         <v>21.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
         <v>27</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>22</v>
@@ -4244,7 +4311,7 @@
         <v>26</v>
       </c>
       <c r="AR21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS21" t="n">
         <v>24</v>
@@ -4256,16 +4323,16 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,31 +4391,31 @@
         <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.469</v>
+        <v>0.467</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M22" t="n">
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.362</v>
       </c>
       <c r="O22" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
         <v>32.9</v>
@@ -4357,13 +4424,13 @@
         <v>42.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
         <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
@@ -4372,22 +4439,22 @@
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
         <v>8</v>
@@ -4399,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4408,16 +4475,16 @@
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4429,7 +4496,7 @@
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>9</v>
@@ -4441,16 +4508,16 @@
         <v>15</v>
       </c>
       <c r="AW22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4566,34 +4633,34 @@
         <v>-2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4620,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
@@ -4638,7 +4705,7 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4772,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
@@ -4781,10 +4848,10 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4814,10 +4881,10 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>11</v>
@@ -4942,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI25" t="n">
         <v>22</v>
@@ -4963,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4975,7 +5042,7 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>28</v>
@@ -4990,13 +5057,13 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" t="n">
         <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>0.478</v>
+        <v>0.467</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="P26" t="n">
-        <v>27.6</v>
+        <v>27.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
         <v>10</v>
@@ -5097,22 +5164,22 @@
         <v>4.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5127,13 +5194,13 @@
         <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5145,16 +5212,16 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
         <v>23</v>
@@ -5163,13 +5230,13 @@
         <v>29</v>
       </c>
       <c r="AU26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
         <v>29</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>25</v>
@@ -5181,13 +5248,13 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
         <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
         <v>13</v>
@@ -5330,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
@@ -5339,7 +5406,7 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
         <v>20</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.255</v>
+        <v>0.239</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J28" t="n">
         <v>85.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L28" t="n">
         <v>4.2</v>
       </c>
       <c r="M28" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O28" t="n">
         <v>17.5</v>
@@ -5440,19 +5507,19 @@
         <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S28" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>45.2</v>
+        <v>45</v>
       </c>
       <c r="U28" t="n">
         <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W28" t="n">
         <v>6.6</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.40000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,7 +5555,7 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
@@ -5506,7 +5573,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5518,7 +5585,7 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5536,16 +5603,16 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE29" t="n">
         <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5670,13 +5737,13 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5721,10 +5788,10 @@
         <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -5762,64 +5829,64 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="N30" t="n">
         <v>0.357</v>
       </c>
       <c r="O30" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T30" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U30" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X30" t="n">
         <v>4.4</v>
@@ -5828,19 +5895,19 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
         <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5858,22 +5925,22 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5888,22 +5955,22 @@
         <v>28</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6040,13 +6107,13 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6067,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6079,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-2-2007-08</t>
+          <t>2008-02-02</t>
         </is>
       </c>
     </row>
